--- a/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_mixedbread-ai_mxbai-embed-large-v1_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_mixedbread-ai_mxbai-embed-large-v1_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -478,13 +478,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the context provided, long non-coding RNAs (lncRNAs) tend to be spliced less efficiently compared to mRNAs:
-1. The passage states that "For alternative exons and long noncoding RNAs, splicing tends to occur later, and the latter might remain unspliced in some cases."
-2. It mentions that lncRNAs show lower splicing completion than mRNAs in the total chromatin fraction and nuclear polyA+ fraction. 
-3. It notes that "lncRNAs are often spliced later and sometimes might even not be spliced at all."
-4. Specific examples are given of lncRNAs that remain predominantly unspliced, such as AIRN and KCNQ1OT1.
-5. The coSI (co-transcriptional splicing index) values for lncRNA exons are described as "dramatically lower than those of coding exons" in the chromatin fraction.
-So in summary, while some lncRNAs are spliced, they tend to be spliced less efficiently and later than mRNAs, with some remaining unspliced. The splicing of lncRNAs appears to be more variable and less complete compared to protein-coding transcripts.</t>
+          <t>Based on the information provided in the context, long non-coding RNAs (lncRNAs) can be spliced, but they tend to be spliced less efficiently and often later than protein-coding mRNAs. Specifically:
+1. The context states that lncRNAs show lower splicing completion than mRNAs in the chromatin fraction and nuclear polyA+ fraction.
+2. It mentions that lncRNAs are "often spliced later and sometimes might even not be spliced at all."
+3. Some specific lncRNAs like AIRN and KCNQ1OT1 are noted to remain predominantly unspliced.
+4. The coSI (co-transcriptional splicing index) values for lncRNA exons are described as "dramatically lower" than those of coding exons in the chromatin fraction.
+5. At the gene level, lncRNAs show lower splicing completion than mRNAs in the chromatin fraction.
+So in summary, while lncRNAs can be spliced, they tend to undergo splicing less efficiently and often later in the RNA processing pathway compared to mRNAs. Some lncRNAs may remain largely or completely unspliced. The splicing dynamics of lncRNAs appear to differ from those of protein-coding transcripts.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
         <is>
           <t>Based on the information provided in the context, yes, Denosumab has been approved by the FDA for use in men with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
 "The FDA approved in November 2010 denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
-SREs refers to skeletal-related events. The context indicates that Denosumab was approved to help prevent bone-related complications in men with advanced prostate cancer that has spread to the bones.</t>
+SREs refers to skeletal-related events. The context indicates that Denosumab was shown to delay the time to first skeletal-related event compared to zoledronic acid in a phase III trial in men with bone metastases from CRPC. This led to its FDA approval in 2010 for preventing skeletal-related events in this patient population.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,14 +550,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with a complex genetic etiology, rather than a simple Mendelian disorder. Key points supporting this:
-1. The context states that HSCR "has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
-2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR in a "multifactorial nature."
-3. The study analyzes the "synergistic effect" and interaction between rare and common RET variants, indicating multiple genetic factors are involved.
-4. It notes that HSCR can occur sporadically or be familial, and has variable penetrance, which is more consistent with a multifactorial disorder.
-5. The context discusses multiple genes and pathways involved in HSCR pathogenesis, not just a single causative gene.
-6. It refers to HSCR as having a "complex genetic etiology" multiple times.
-So while certain genes like RET play major roles, HSCR appears to result from the combined effects of multiple genetic and likely environmental factors, making it a multifactorial rather than a simple Mendelian disorder. The complex inheritance pattern and involvement of both rare and common variants support this conclusion.</t>
+          <t>Based on the information provided in the context, Hirschsprung disease appears to be a multifactorial disorder with a complex genetic etiology, rather than a simple Mendelian disorder. Key evidence for this includes:
+1. The context states that "HSCR has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
+2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to the "multifactorial nature of this pathology."
+3. The study analyzes the "synergistic effect" of both rare and common RET variants, indicating multiple genetic factors are involved.
+4. It notes that HSCR can be associated with chromosomal abnormalities and other syndromes in some cases, suggesting environmental or epigenetic factors may also play a role.
+5. The disease shows variable expressivity and incomplete penetrance, with sex-dependent penetrance mentioned.
+6. Multiple genes and signaling pathways are described as being involved in HSCR pathogenesis.
+While some rare monogenic forms may exist, the overall evidence presented indicates Hirschsprung disease is primarily a multifactorial disorder with both genetic and potential environmental contributions, rather than following simple Mendelian inheritance patterns. The complex interplay of multiple genetic variants appears to underlie most cases of the disease.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -589,12 +589,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the context provided, it appears that RANKL is secreted from the cells. Specifically:
-1. The passage mentions measuring RANKL levels in the culture medium using ELISA: "OPG and RANKL levels were analyzed in the osteoblast differentiation medium using a commercially available ELISA kit"
-2. It states that the "RANKL/OPG ratio secreted by osteoblasts increased", indicating RANKL is secreted by the cells.
-3. The study is examining the effects on the OPG/RANKL/RANK system, which typically involves RANKL being secreted as a soluble factor.
-4. Table II shows RANKL levels measured in the culture medium of osteoblasts, with higher levels in the co-culture condition.
-So while not explicitly stated, the evidence strongly suggests that RANKL is indeed secreted from the cells (likely osteoblasts) into the culture medium in this experimental system. The ability to measure RANKL in the medium and references to it being secreted support this conclusion.</t>
+          <t>Based on the context provided, the study does not directly state whether RANKL is secreted from the cells. However, there are a few relevant points:
+1. The study mentions measuring RANKL levels in the culture medium of osteoblasts using ELISA:
+"OPG and RANKL levels were analyzed in the osteoblast differentiation medium using a commercially available ELISA kit according to the manufacturer's instructions."
+2. It reports that the RANKL/OPG ratio secreted by osteoblasts was increased when co-cultured with adipocytes:
+"The results of this study indicate that the OPG/RANKL ratio secreted by osteoblasts was decreased by adipocyte stimulation."
+3. Table II shows RANKL levels detected in the culture medium of osteoblasts in both single-culture and co-culture conditions.
+While not explicitly stated, these points strongly suggest that RANKL is indeed secreted from the osteoblast cells into the culture medium, allowing it to be measured. The detection of RANKL in the culture medium implies it is being secreted by the cells.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -626,18 +627,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the provided context, there are mixed indications regarding the potential use of trastuzumab (Herceptin) for treating prostate cancer:
-Potential benefits:
-1. HER2 expression increases in prostate cancer as it progresses to androgen independence, suggesting HER2 may be a relevant target.
-2. HER2 can activate the androgen receptor pathway even without androgen, indicating it may play a role in hormone-refractory prostate cancer.
-3. Some studies showed HER2 expression in prostate cancer cell lines and tumor samples, including metastases.
-4. Radiolabeled trastuzumab showed binding to prostate cancer cells in vitro.
-Limitations:
-1. Clinical trials using trastuzumab alone showed limited therapeutic responses in prostate cancer patients.
-2. A phase II trial found trastuzumab was well-tolerated but had no significant antitumor activity in prostate cancer patients.
-3. Prostate tumors appear to have lower HER2 expression compared to breast cancers where trastuzumab is effective.
-4. There are mixed results regarding HER2 expression levels in prostate cancer samples across different studies.
-In conclusion, while there is a rationale for targeting HER2 in prostate cancer, clinical results with trastuzumab alone have been disappointing so far. It may have more potential as part of combination therapies or when radiolabeled for targeted radiation delivery, but further research is needed to determine its optimal use, if any, in prostate cancer treatment.</t>
+          <t>Based on the provided context, there is evidence that Trastuzumab (Herceptin) may have potential use in treating some cases of prostate cancer, but its effectiveness appears limited:
+1. HER2 expression increases in prostate cancer as it progresses to androgen independence, suggesting HER2 may be a potential target.
+2. HER2 can activate the androgen receptor pathway even without androgen, indicating it may play a role in androgen-independent prostate cancer.
+3. Several studies have evaluated Trastuzumab for prostate cancer:
+- Preclinical studies in animal models showed limited therapeutic responses to Trastuzumab alone.
+- A phase II clinical trial found Trastuzumab was well-tolerated but demonstrated no significant antitumor activity in hormone therapy-naive patients.
+- Another study noted that prostate tumors with high HER2 expression were found to be resistant or much less sensitive to Trastuzumab treatment compared to breast cancer.
+4. However, some potential remains:
+- Combining Trastuzumab with other therapies may improve efficacy. 
+- Using Trastuzumab conjugated to radionuclides or toxins could potentially enhance its effects against prostate cancer.
+In summary, while Trastuzumab alone has shown limited efficacy against prostate cancer so far, it may still have potential use as part of combination therapies or when modified (e.g. radiolabeled). More research is needed to determine its optimal application, if any, for prostate cancer treatment.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following ligands are known to interact with and bind to the epidermal growth factor receptor (EGFR):
+          <t>Based on the context provided, the following signaling molecules (ligands) are known to interact with the epidermal growth factor receptor (EGFR):
 1. Epidermal growth factor (EGF)
 2. Transforming growth factor-α (TGF-α) 
 3. Heparin-binding EGF-like growth factor (HB-EGF)
@@ -677,7 +677,7 @@
 5. Amphiregulin (AR)
 6. Epiregulin (EPR)
 7. Epigen (EPG)
-The context mentions that these seven ligands are known to bind to EGFR, with binding affinities ranging from sub-nanomolar to near micromolar dissociation constants. They are generally categorized into high affinity ligands (EGF, TGF-α, HB-EGF, and BTC) and low affinity ligands (AR, EPR, and EPG).</t>
+The passage states that "Seven different ligands are known to bind to EGFR" and then lists these 7 ligands specifically. It also mentions that they all share a common EGF-like motif structure and can be classified into high affinity ligands (EGF, TGF-α, HB-EGF, BTC) and low affinity ligands (AR, EPR, EPG) based on their binding affinities to EGFR.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -711,10 +711,10 @@
         <is>
           <t>Based on the context provided, orteronel (TAK-700) was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
 - The study described was a phase I/II trial of orteronel in patients with metastatic castration-resistant prostate cancer.
-- Orteronel is described as an "investigational, oral, nonsteroidal, selective, reversible inhibitor of 17,20-lyase, a key enzyme in the production of androgenic hormones."
-- The study evaluated orteronel in men with "progressive, chemotherapy-naïve, metastatic castration-resistant prostate cancer."
-- The results showed PSA declines, testosterone suppression, and some radiographic responses in CRPC patients treated with orteronel.
-So in summary, orteronel was developed as a treatment specifically for castration-resistant prostate cancer.</t>
+- Orteronel is described as an investigational, oral, nonsteroidal, selective, reversible inhibitor of 17,20-lyase, which is a key enzyme in androgen production. 
+- The study evaluated orteronel in men with progressive, chemotherapy-naïve, metastatic castration-resistant prostate cancer.
+- The results showed orteronel led to declines in PSA and testosterone levels, with evidence of radiographic responses in patients with CRPC.
+So in summary, orteronel was developed specifically as a treatment for castration-resistant prostate cancer.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -748,19 +748,18 @@
         <is>
           <t>Based on the context provided, Pannexin1 (Panx1) is located in the following places:
 1. In mammalian cells:
-- In the plasma membrane
-- In intracellular vesicles (for Panx2)
-2. Specifically in skeletal muscles:
-- In the sarcolemma of T-tubules, in close proximity to dihydropyridine receptors
-- At the cell surface of myotubes
-3. In the zebrafish retina:
-- drPanx1a is expressed in horizontal cells of the outer retina
-- drPanx1b is expressed in the inner nuclear layer and ganglion cell layer
-4. In the zebrafish brain:
-- drPanx1b is expressed in various brain areas including the cerebellum, tectum opticum, and spinal cord
-5. In mouse retina:
-- Expressed in both the inner and outer retina
-The context indicates that Panx1 is widely expressed in the central nervous system, including sensory systems like the eye, but its specific localization can vary between species and cell types. In general, Panx1 forms channels in the plasma membrane of cells.</t>
+- Panx1 is found in the plasma membrane, forming single membrane channels (not gap junctions).
+2. In the central nervous system (CNS):
+- Panx1 is widely expressed in the CNS, including the inner and outer retina in mammals.
+3. In zebrafish retina:
+- drPanx1a (zebrafish Panx1a) is expressed exclusively in horizontal cells of the outer retina.
+- drPanx1b (zebrafish Panx1b) is found in the inner nuclear layer and ganglion cell layer.
+4. In skeletal muscles:
+- Panx1 is expressed in normal myotubes and adult innervated skeletal myofibers.
+- In innervated adult fast and slow skeletal myofibers, Panx1 is found in close proximity to dihydropyridine receptors in the sarcolemma of T-tubules.
+5. In cell culture:
+- When expressed in cell lines like N2a cells, Panx1 proteins localize prominently in the plasma membrane and perinuclear region.
+In summary, Pannexin1 is primarily located in plasma membranes of various cell types, with some intracellular localization as well, depending on the specific cell type and organism.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -794,7 +793,11 @@
         <is>
           <t>Based on the context provided, the main acetylcholinesterase inhibitor mentioned for treatment of myasthenia gravis is:
 Pyridostigmine (Mestinon)
-The passage states that "In MG, the first-line option is symptomatic treatment with" acetylcholinesterase inhibitors, and specifically mentions pyridostigmine (Mestinon) as an example. No other specific acetylcholinesterase inhibitors are named in the given context.</t>
+The passage states:
+"In MG, the first-line option is symptomatic treatment with acetylcholinesterase inhibitors"
+And specifically mentions:
+"Mestinon (pyridostigmine bromide) in myasthenia gravis"
+So pyridostigmine (brand name Mestinon) is the primary acetylcholinesterase inhibitor discussed for treating myasthenia gravis in this context. The passage does not mention any other specific acetylcholinesterase inhibitors for MG treatment.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -831,7 +834,7 @@
 2. Sox2  
 3. Klf4
 4. c-Myc
-These four transcription factors are described as the "Yamanaka factors" that are highly expressed in embryonic stem cells and can induce pluripotency when overexpressed in somatic cells. The paper discusses analyzing the target genes and regulatory networks of these four factors in mouse embryonic stem cells.</t>
+These four transcription factors are described as the "Yamanaka factors" that are highly expressed in embryonic stem (ES) cells and can induce pluripotency when overexpressed in somatic cells to generate induced pluripotent stem (iPS) cells. The paper focuses on analyzing how these four factors regulate developmental signaling networks in mouse embryonic stem cells.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -863,15 +866,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Based on the context provided, the mammalian Notch receptor has multiple isoforms, including:
+          <t>Based on the information provided in the context, the mammalian Notch receptor has multiple isoforms, including:
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-Specifically, the passage mentions:
-"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells"
-And it describes experiments showing that:
-"wildtype and mutant NOTCH3 formed stable complexes with NOTCH1 and NOTCH4 ectodomains"
-So the context indicates that NOTCH1, NOTCH3, and NOTCH4 are different isoforms of the mammalian Notch receptor that can interact with each other. The passage focuses primarily on NOTCH3 but demonstrates its ability to form complexes with the NOTCH1 and NOTCH4 isoforms as well.</t>
+Specifically, the context mentions:
+- NOTCH1, NOTCH3, and NOTCH4 are expressed in blood vessels and A7R5 smooth muscle cells.
+- The ectodomains of NOTCH1 and NOTCH4, like NOTCH3, are composed of a large number of EGF-like domain repeats. 
+- Experiments showed that wildtype and mutant NOTCH3 formed stable complexes with NOTCH1 and NOTCH4 ectodomains.
+So the context explicitly discusses NOTCH1, NOTCH3, and NOTCH4 as different isoforms of the mammalian Notch receptor that are expressed in vascular tissues.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -903,22 +906,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following mitochondrial diseases have been attributed to mutations in the POLG gene:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and autosomal recessive forms of PEO can be caused by POLG mutations.
-2. A disorder resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features similar to MNGIE who had POLG mutations rather than the typical thymidine phosphorylase mutations.
-3. Disorders with features including:
-- Axonal sensory neuropathy
-- Sensory ataxia 
-- Cardiomyopathy
+          <t>Based on the context provided, POLG mutations have been associated with the following mitochondrial diseases:
+1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations. PEO is characterized by weakness of the external eye muscles.
+2. A condition mimicking mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features resembling MNGIE who had POLG mutations rather than the typical thymidine phosphorylase mutations seen in MNGIE. 
+3. A disorder with features including:
+- Gastrointestinal symptoms like chronic pseudo-obstruction
+- Axonal sensory ataxic neuropathy  
+- Muscle weakness
+- Cachexia
+- Multiple mtDNA deletions
+4. The paper notes that previous studies have reported POLG mutations in patients with variable features including:
+- Sensory ataxia
+- Cardiomyopathy  
 - Retinopathy
 - Sensorineural hearing loss
 - Thalamic lesions
 - Muscle dystrophy
 - Facial diplegia
-- Dysarthria
+- Dysarthria 
 - Dysphagia
-The context notes that recessive POLG mutations can cause a heterogeneous clinical phenotype with various combinations of these features.
-The report emphasizes that POLG mutations can cause a wider spectrum of mitochondrial disorders than previously recognized, including some that resemble other known mitochondrial diseases like MNGIE. However, it does not provide an exhaustive list of all POLG-related disorders known at the time.</t>
+So in summary, POLG mutations can cause a spectrum of mitochondrial disorders, with PEO being one of the most common manifestations, but also potentially affecting multiple other systems like the gastrointestinal tract, peripheral nerves, and muscles. The phenotype appears to be quite variable.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -933,7 +940,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'Cutler DJ, Green ED, Chakravarti A: A common sex-dependent mutation in\na RET enhancer underlies Hirschsprung disease risk. Nature 2005,\n434:857-863.\n4. Fernandez RM, Boru G, Pecina A, Jones K, Lopez-Alonso M, Antiñolo G,\nBorrego S, Eng C: Ancestral RET haplotype associated with Hirschsprung ’s\ndisease shows linkage disequilibrium breakpoint at -1249. J Med Genet\n2005, 42:322-327.\n5. Emison ES, Garcia-Barcelo M, Grice EA, Lantieri F, Amiel J, Burzynski G,\nFernandez RM, Hao L, Kashuk C, West K, Miao X, Tam PK, Griseri P,Ceccherini I, Pelet A, Jannot AS, de Pontual L, Henrion-Caude A, Lyonnet S,Verheij JB, Hofstra RM, Antiñolo G, Borrego S, McCallion AS, Chakravarti A:Differential contributions of rare and common, coding and noncodingRet mutations to multifactorial Hirschsprung disease liability. Am J Hum\nGenet 2010, 87(1) :60-74.\n6. Sribudiani Y, Metzger M, Osinga J, Rey A, Burns AJ, Thapar N, Hofstra RM:\nVariants in RET associated with Hirschsprung disease affect binding oftranscription factors and gene expression. Gastroenterology 2011,\n140(2) :572-582, e2.\n7. Ruiz-Ferrer F, Fernandez R, Antiñolo G, López- Alonso M, Eng C, Borrego S:\nA complex additive of inheritance for Hirschprung disease (HSCR) is\nsupported by both RET mutations and predisposing RET haplotypes.\nGenet Med 2006, 8:1-6.\n8. Borrego S, Wright FA, Fernandez RM, Williams N, Lopez-Alonso M,\nDavuluri R, Antiñolo G, Eng C: A founding locus within the RET proto-\noncogene may account for a large proportion of apparently sporadicHirschsprung disease and a subset of cases of sporadic medullary\nthyroid carcinoma. Am J Hum Genet 2003, 72:88-100.Núñez-Torres et al .BMC Medical Genetics 2011, 12:138\nhttp://www.biomedcentral.com/1471-2350/12/138Page 6 of 7\n9. Sánchez-Mejías A, Fernández RM, López-Alonso M, Antiñolo G, Borrego S:\nNew roles of EDNRB and EDN3 in the pathogenesis of Hirschsprung\ndisease. Genet Med 2010, 12:39-43.\n10. Fernández RM, Sánchez-Mejías A, Ruiz-Ferrer M, López-Alonso M,\nAntiñolo G, Borrego S: Is the RET proto-oncogene involved in the\npathogenesis of intestinal neuronal dysplasia type B? Mol Med Rep 2009,\n2:265-270.\n11. Zintzaras E, Lau J: Synthesis of genetic association studies for pertinent\ngene-disease associations requires appropriate methodological andstatistical approaches. J Clin Epidemiol 2008, 61:634-45.\n12. Zintzaras E: The generalized odds ratio as a measure of genetic risk\neffect in the analysis and meta-analysis of association studies. Stat Appl\nGenet Mol Biol 2010, 9:Article21.\n13. Ruiz-Ferrer M, Fernandez RM, Antiñolo G, Lopez-Alonso M, Borrego S: NTF-\n3, a gene involved in the enteric nervous system development, as acandidate gene for Hirschsprung disease. J Pediatr Surg 2008,\n43(7) :1308-1311.\n14. Ruiz-Ferrer M, Torroglosa A, Luzón-Toro B, Fernández RM, Antiñolo G,\nMulligan LM, Borrego S: Novel mutations at RET ligands genes\npreventing receptor activation are associated to Hirschsprung ’s disease.\nJ Mol Med 2011, 89(5) :471-80.\n15. Fernandez RM, Robledo M, Antinolo G, Pecina A, Ruiz-Llorente S, Eng C,\nBorrego S: The RET IVS1-126G &gt; T variant is strongly associated with the\ndevelopment of sporadic medullary thyroid cancer. Thyroid 2004,\n14(4) :329-331.\n16. Fernández RM, Peciña A, Antiñolo G, Navarro E, Borrego S: Analysis of RET\npolymorphisms and haplotypes in the context of sporadic medullarythyroid carcinoma. Thyroid 2006, 16(4) :411-417.\n17. Núñez-Torres R, Fernández RM, López-Alonso M, Antiñolo G, Borrego S: A\nnovel study of copy number variations in Hirschsprung disease using\nthe multiple ligation-dependent probe amplification (MLPA) technique.\nBMC Med Genet 2009, 10:119-124.\n18. Sánchez-Mejías A, Núñez-Torres R, Fernández RM, Antiñolo G, Borrego S:\nNovel MLPA procedure using self-designed probes allowscomprehensive analysis for CNVs of the genes involved in Hirschsprungdisease. BMC Med Genet 2010, 11:71-79.\n19. Mulligan LM, Eng C, Attié T, Lyonnet S, Marsh DJ, Hyland VJ, Robinson BG,']</t>
+          <t>['SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'mutational events related with HSCR: 1 chromosomaltranslocation (t(10:22)), 6 chromosomal 21 triplication\nand 4 mutations in other HSCR genes ( EDNRB ,GDNF ,\nandNTF3 ) [7,13,14].\nDiscussion\nPrevious genome-wide linka ge/association studies have\nidentified several modifier genes in different genomic\nregions, but RET i st h eo n l yg e n ek n o w nt op l a ya\nmajor role in all forms of HSCR susceptibility and aTable 1 RETgermline mutations identified in our series of HSCR patients\nPatient Exon/\nIntronNucleotide\nchangeAmino acid\nchangeParent origin of the\nmutationGender Length of aganglionic\nsegmentRef.\nHSCR 193 2 c.287A &gt; C p.Tyr96Ser Mother Female Not Available –\nHSCR 133 3 c.466 G &gt; T p.Ala156Ser De novo Female S-HSCR –\nHSCR 166 5 c.937 C &gt; T p.Arg313Trp Mother Male Not Available –\nHSCR\nV1355 c.988insC p.R330PfsX353 Mother Male S-HSCR –\nHSCR 223 5 c.1042 C &gt; T p.Arg348Trp Mother Male Not Available –\nHSCR 109 6 c.1118 C &gt; T p.Ala373Val Father Female S-HSCR [7]\nHSCR 217 6 c.1118 C &gt; T p.Ala373Val Mother Male S-HSCR [7]\nHSCR 220 6 c.1118 C &gt; T p.Ala373Val Mother Male S-HSCR [7]\nHSCR 99 7 c.1267G &gt; A p.Gly423Arg Mother Female S-HSCR –\nHSCR V67 7 c.1325T &gt; C p. Leu442Pro Mother Male Not Available –\nHSCR 187 8 c.1627 T &gt; A p.Trp543Arg De novo Female S-HSCR –\nHSCR 260 10 c.1859G &gt; A p.Cys620Tyr Father Male L-HSCR –\nHSCR V24 14 c.2459G &gt; A p. Arg820His De novo Male Not Available –\nHSCR 204 17 c.2858 C &gt; T p.Pro953Leu Mother Male S-HSCR –\nHSCR 278 18 c.2944 C &gt; T p.Arg982Cys Not Available Male S-HSCR [19]\nHSCR V22 18 c.2944 C &gt; T p.Arg982Cys Father Male Not Available [19]\nHSCR 15 18 c. 2975 C &gt; T p.Pro992Leu De novo Male L-HSCR –\nHSCR 151 19 c.3185 A &gt; G p.Tyr1062Cys Mother Female S-HSCR [20]\nHSCR 198 19 c.3185 A &gt; G p.Tyr1062Cys Father Male Not Available [20]\nHSCR 278 20 c*4delTCTTinsAAA NA Male S-HSCR –\nFigure 1 Schematic representation of RET protein . Mutations identified in this study are indicated in the corresponding functional domain.\nNovel and published mutations are presented in black and grey, respectively.Núñez-Torres et al .BMC Medical Genetics 2011, 12:138\nhttp://www.biomedcentral.com/1471-2350/12/138Page 4 of 7\nquantitative study of its allelic spectrum should provide\nclues on the role of both rare and common sequence\nvariants in the complex inheritance of HSCR, particu-\nlarly its relationships to factors that are correlated with\nrisk, such as gender.\nAfter our RET CDS mutational screening, we have\nfound that our whole series of Spanish HSCR patients\npresents a mutational frequency of 11.11% in sporadic\ncases and 18.75% in familial ones, which is concordant\nwith previous studies that report values of up to 50% in\nfamilial forms and 7-20% in sporadic cases [2].\nGenotyping analysis of RET common SNPs shows\nsimilar results to those previously described, confirming\nthereby the prominent role of either the intronic enhan-\ncer mutation (rs2435357, [3]) or the RET “risk haplo-\ntype ”[4,8] in the pathogenesis of sporadic HSCR.\nAs previously commented, one of the major features\nof HSCR, especially in the short-segment forms, is the\nsex-dependent penetrance and male predominance of\n4:1 [1]. Nevertheless the reason of this sex difference is\nstill unclear. It has been postulated that sex differences\ncould arise from mutations on the × chromosome, but\ngenome-wide mapping studies have failed to identify an\nX-linked gene with a relevant impact per se in HSCR.Previous studies have indeed demonstrated differences\nin the transmission frequency of the “enhancer muta-\ntion ”(rs2435357) depending on the offspring gender or\nparent gender [3,5]. For this reason, we sought to per-\nform an additional case-control study to analyze the dis-\ntribution of the RET variants based in gender. We found\na different allelic distribution between HSCR cases and\ncontrols in both, males and females, for rs2435357 and\nrs2505532. However and noteworthy, significant differ-\nences in HSCR versus controls in the male subset were']</t>
         </is>
       </c>
     </row>
@@ -950,17 +957,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Based on the systematic review and experimental validation described in the context, the following miRNAs appear to be the most promising potential biomarkers for epithelial ovarian cancer:
+          <t>Based on the systematic review and experimental validation described in the context, the following miRNAs appear to be promising potential biomarkers for epithelial ovarian cancer:
 1. miR-200a
-2. miR-200b  
-3. miR-200c
-4. miR-141
-5. miR-100
-The review found these 5 miRNAs were consistently differentially expressed across multiple independent studies:
-- miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently upregulated in at least 4 studies.
-- miR-100 was consistently downregulated in 4 studies. 
-Additionally, the authors experimentally validated the dysregulation of these 5 miRNAs in epithelial ovarian cancer tissues using qRT-PCR, confirming the findings from the literature review.
-The review concludes that these 5 most consistently expressed miRNAs "might provide some clues of the potential biomarkers in EOC", though further validation studies are needed to confirm their clinical significance.</t>
+2. miR-100  
+3. miR-141
+4. miR-200b
+5. miR-200c
+The review found these 5 miRNAs to be consistently differentially expressed across multiple independent studies comparing ovarian cancer tissues/cell lines to normal ovarian tissues:
+- miR-200a, miR-200b, miR-200c, and miR-141 were consistently upregulated in at least 4 studies. These all belong to the miR-200 family.
+- miR-100 was consistently downregulated in 4 studies.
+The authors then experimentally validated the differential expression of these 5 miRNAs in clinical ovarian cancer tissue samples using qRT-PCR, confirming the findings from the literature review.
+Additionally, the review mentions miR-21 as another potential serum biomarker for ovarian cancer diagnosis and prognosis, based on its significantly elevated levels in ovarian cancer patients compared to healthy controls.
+In summary, the miR-200 family members (miR-200a/b/c, miR-141), miR-100, and miR-21 appear to be the most promising potential biomarkers for epithelial ovarian cancer based on the evidence presented in this context.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
